--- a/report_ca_nhan/LONG XUYÊN/NV-40 Sang sang 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-40 Sang sang 7-2024.xlsx
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1928571.428571429</v>
+        <v>2035714.285714286</v>
       </c>
     </row>
     <row r="13">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2758571.428571429</v>
+        <v>2900714.285714285</v>
       </c>
     </row>
     <row r="30">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2758571.428571429</v>
+        <v>2900714.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/LONG XUYÊN/NV-40 Sang sang 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-40 Sang sang 7-2024.xlsx
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="4">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2035714.285714286</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="13">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2900714.285714285</v>
+        <v>3185000</v>
       </c>
     </row>
     <row r="30">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2900714.285714285</v>
+        <v>3185000</v>
       </c>
     </row>
   </sheetData>
